--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f879a4f36e1cad25/Documents/Fall 2021/CS341_SoftwareEngineering/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/910d8b8c7ab06b00/Documents/GitHub/the-chosen-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{2869724F-F399-F247-8D43-910163D6DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9843838C-52FD-AD45-9E1F-4E3EB1AEC3A0}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{2869724F-F399-F247-8D43-910163D6DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E22C5A4-B229-4096-B314-73549EA64C0D}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="1800" windowWidth="22860" windowHeight="17440" xr2:uid="{C4618D14-70AD-6D46-854D-BB7035C48A8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C4618D14-70AD-6D46-854D-BB7035C48A8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Section 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Section 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>CS 341</t>
   </si>
@@ -154,6 +155,171 @@
   </si>
   <si>
     <t>We asked 100 Americans: How much do you tip for good service?</t>
+  </si>
+  <si>
+    <t>Name a state in the U.S. that is the most fun to visit</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>The first thing people reach for when they wake up in the morning</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Toothbrush</t>
+  </si>
+  <si>
+    <t>Remote control</t>
+  </si>
+  <si>
+    <t>Pets that live in a tank</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Hampster/Gerbil/Mouse</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Guinea pig</t>
+  </si>
+  <si>
+    <t>Lizard</t>
+  </si>
+  <si>
+    <t>Tarantula</t>
+  </si>
+  <si>
+    <t>Name something people save money for</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Emergencies</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Name something you don't want to hear right before major surgery</t>
+  </si>
+  <si>
+    <t>"Oops."</t>
+  </si>
+  <si>
+    <t>"Where's the doctor?"</t>
+  </si>
+  <si>
+    <t>"It's my first day!"</t>
+  </si>
+  <si>
+    <t>"This could take a while."</t>
+  </si>
+  <si>
+    <t>"Is this normal?"</t>
+  </si>
+  <si>
+    <t>Name a ball not used in sports.</t>
+  </si>
+  <si>
+    <t>Cannon ball</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>Mothball</t>
+  </si>
+  <si>
+    <t>Eyeball</t>
+  </si>
+  <si>
+    <t>Meatball</t>
+  </si>
+  <si>
+    <t>Name a type of paper that you wouldn't use to write on</t>
+  </si>
+  <si>
+    <t>Toilet paper</t>
+  </si>
+  <si>
+    <t>Flypaper</t>
+  </si>
+  <si>
+    <t>Wallpaper</t>
+  </si>
+  <si>
+    <t>Sandpaper</t>
+  </si>
+  <si>
+    <t>Tarpaper</t>
+  </si>
+  <si>
+    <t>Gun paper</t>
+  </si>
+  <si>
+    <t>Name a place people find it irritating when others use a cell phone</t>
+  </si>
+  <si>
+    <t>Movie theater</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Concert hall</t>
+  </si>
+  <si>
+    <t>Gym</t>
   </si>
 </sst>
 </file>
@@ -207,12 +373,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,84 +695,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D894B-E6A0-2442-98F4-A96EEF85EAFF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1180</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>259</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>24</v>
       </c>
       <c r="M2" t="s">
@@ -615,48 +781,48 @@
       <c r="N2">
         <v>25</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>0.2</v>
       </c>
       <c r="P2">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>24</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>587</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>165</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>19</v>
       </c>
       <c r="M3" t="s">
@@ -665,48 +831,48 @@
       <c r="N3">
         <v>23</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0.15</v>
       </c>
       <c r="P3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>333</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>129</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>16</v>
       </c>
       <c r="M4" t="s">
@@ -715,42 +881,42 @@
       <c r="N4">
         <v>21</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>0.25</v>
       </c>
       <c r="P4">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>74</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>13</v>
       </c>
       <c r="M5" t="s">
@@ -759,36 +925,36 @@
       <c r="N5">
         <v>9</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>0.18</v>
       </c>
       <c r="P5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>10</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>12</v>
       </c>
       <c r="M6" t="s">
@@ -797,30 +963,30 @@
       <c r="N6">
         <v>8</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>20</v>
       </c>
       <c r="P6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>9</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>4</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>6</v>
       </c>
       <c r="M7" t="s">
@@ -829,30 +995,30 @@
       <c r="N7">
         <v>5</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>0.1</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>4</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>4</v>
       </c>
       <c r="M8" t="s">
@@ -862,17 +1028,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>2</v>
       </c>
       <c r="M9" t="s">
@@ -882,11 +1048,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>2</v>
       </c>
       <c r="M10" t="s">
@@ -910,4 +1076,369 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155F7016-4EB5-41B9-B34D-9134BDC17B8F}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="1">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="1">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="1">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="1">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="1">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/910d8b8c7ab06b00/Documents/GitHub/the-chosen-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f879a4f36e1cad25/Documents/Fall 2021/CS341_SoftwareEngineering/Project-12-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{2869724F-F399-F247-8D43-910163D6DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E22C5A4-B229-4096-B314-73549EA64C0D}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{2869724F-F399-F247-8D43-910163D6DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86856E18-C48E-48D7-A632-626E9797AB4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C4618D14-70AD-6D46-854D-BB7035C48A8B}"/>
+    <workbookView xWindow="990" yWindow="4365" windowWidth="20865" windowHeight="11835" xr2:uid="{C4618D14-70AD-6D46-854D-BB7035C48A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Section 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>CS 341</t>
   </si>
@@ -320,6 +320,42 @@
   </si>
   <si>
     <t>Gym</t>
+  </si>
+  <si>
+    <t>Molly's</t>
+  </si>
+  <si>
+    <t>Peabody's</t>
+  </si>
+  <si>
+    <t>Varsity</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Coquelicot</t>
+  </si>
+  <si>
+    <t>Bra</t>
+  </si>
+  <si>
+    <t>Cloth/Towel</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Glove</t>
+  </si>
+  <si>
+    <t>Nothing</t>
   </si>
 </sst>
 </file>
@@ -695,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D894B-E6A0-2442-98F4-A96EEF85EAFF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,20 +781,20 @@
       <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
-        <v>1180</v>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>259</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -795,23 +831,23 @@
       <c r="B3" s="1">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>587</v>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>165</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1">
         <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -845,23 +881,23 @@
       <c r="B4" s="1">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
-        <v>333</v>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
         <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>129</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -895,17 +931,17 @@
       <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
-        <v>74</v>
+      <c r="E5" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -939,8 +975,8 @@
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
-        <v>7</v>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1082,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155F7016-4EB5-41B9-B34D-9134BDC17B8F}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f879a4f36e1cad25/Documents/Fall 2021/CS341_SoftwareEngineering/Project-12-12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/910d8b8c7ab06b00/Documents/GitHub/the-chosen-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{2869724F-F399-F247-8D43-910163D6DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86856E18-C48E-48D7-A632-626E9797AB4F}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{2869724F-F399-F247-8D43-910163D6DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0BEF1C4-6227-49A4-A11E-2CFEDF662CCA}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="4365" windowWidth="20865" windowHeight="11835" xr2:uid="{C4618D14-70AD-6D46-854D-BB7035C48A8B}"/>
+    <workbookView xWindow="-80520" yWindow="-8280" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C4618D14-70AD-6D46-854D-BB7035C48A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Section 1" sheetId="1" r:id="rId1"/>
     <sheet name="Section 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Final Demo" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>CS 341</t>
   </si>
@@ -356,6 +357,102 @@
   </si>
   <si>
     <t>Nothing</t>
+  </si>
+  <si>
+    <t>How Long Does a Typical New Year's Resolution Last?</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>1 Week</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>Name a Popular Chirstmas Carol</t>
+  </si>
+  <si>
+    <t>"We Wish You a Merry Christmas"</t>
+  </si>
+  <si>
+    <t>"Jingle Bells"</t>
+  </si>
+  <si>
+    <t>"Frosty the Snowman"</t>
+  </si>
+  <si>
+    <t>"Deck the Halls"</t>
+  </si>
+  <si>
+    <t>"Joy to the World"</t>
+  </si>
+  <si>
+    <t>"Santa Claus Is Comin' to Town"</t>
+  </si>
+  <si>
+    <t>"Holly Jolly Christmas"</t>
+  </si>
+  <si>
+    <t>"Silent Night"</t>
+  </si>
+  <si>
+    <t>Name an Item You'd Need to Dress Up as Santa Clause</t>
+  </si>
+  <si>
+    <t>Santa Hat</t>
+  </si>
+  <si>
+    <t>Beard</t>
+  </si>
+  <si>
+    <t>Big Belly</t>
+  </si>
+  <si>
+    <t>Red Coat</t>
+  </si>
+  <si>
+    <t>Red Pants/Belt</t>
+  </si>
+  <si>
+    <t>Suspenders</t>
+  </si>
+  <si>
+    <t>Black Boots</t>
+  </si>
+  <si>
+    <t>Name One of Santa's Reindeer</t>
+  </si>
+  <si>
+    <t>Rudolph</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>Donnor</t>
+  </si>
+  <si>
+    <t>Blitzen</t>
+  </si>
+  <si>
+    <t>Cupid</t>
+  </si>
+  <si>
+    <t>Prancer</t>
+  </si>
+  <si>
+    <t>Dasher</t>
+  </si>
+  <si>
+    <t>Vixen</t>
   </si>
 </sst>
 </file>
@@ -731,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D894B-E6A0-2442-98F4-A96EEF85EAFF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1477,4 +1574,243 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3803244B-6B9F-41DD-BC5C-89834837E2DA}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>